--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value692.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value692.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.170884989500466</v>
+        <v>1.24254846572876</v>
       </c>
       <c r="B1">
+        <v>1.314867258071899</v>
+      </c>
+      <c r="C1">
+        <v>1.488025426864624</v>
+      </c>
+      <c r="D1">
+        <v>2.330355882644653</v>
+      </c>
+      <c r="E1">
         <v>-1</v>
-      </c>
-      <c r="C1">
-        <v>0.3617561038001205</v>
-      </c>
-      <c r="D1">
-        <v>0.1937478390998123</v>
-      </c>
-      <c r="E1">
-        <v>0.1452833022071089</v>
       </c>
     </row>
   </sheetData>
